--- a/medicine/Sexualité et sexologie/Correccional_de_mujeres/Correccional_de_mujeres.xlsx
+++ b/medicine/Sexualité et sexologie/Correccional_de_mujeres/Correccional_de_mujeres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Correccional de mujeres (aussi connu sous le titre Operación Chabomba) est un thriller policier érotique argentin sorti le 17 avril 1986, réalisé par Emilio Vieyra[1]. Ce fut le dernier film auquel participa Thelma Stefani, qui se suicida deux semaines plus tard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Correccional de mujeres (aussi connu sous le titre Operación Chabomba) est un thriller policier érotique argentin sorti le 17 avril 1986, réalisé par Emilio Vieyra. Ce fut le dernier film auquel participa Thelma Stefani, qui se suicida deux semaines plus tard.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quatre filles (Laura, Elizabeth, Alicia et Martha) sont condamnées et emmenées dans une prison pour femmes, où elles sont maltraitées. Quand on trouve Martha pendue dans les toilettes, la direction de le prison conclut au meurtre, ce qui réclame l'intervention d'un fonctionnaire. Les filles profitent de la venue du fonctionnaire pour fomenter une émeute, au cours de laquelle Elizabeth parvient à s'échapper. Les autres sont transférées vers un centre de haute sécurité. Pendant le transfert, le fourgon est attaqué et les filles sont amenées à un club où elles sont forcées à se prostituer, le responsable du club étant celui qui a organisé l'attaque du fourgon. Laura parvient à s'échapper, dénonçant avec Elizabeth le réseau de drogue et de traite des êtres humains qui est de mèche avec la prison[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre filles (Laura, Elizabeth, Alicia et Martha) sont condamnées et emmenées dans une prison pour femmes, où elles sont maltraitées. Quand on trouve Martha pendue dans les toilettes, la direction de le prison conclut au meurtre, ce qui réclame l'intervention d'un fonctionnaire. Les filles profitent de la venue du fonctionnaire pour fomenter une émeute, au cours de laquelle Elizabeth parvient à s'échapper. Les autres sont transférées vers un centre de haute sécurité. Pendant le transfert, le fourgon est attaqué et les filles sont amenées à un club où elles sont forcées à se prostituer, le responsable du club étant celui qui a organisé l'attaque du fourgon. Laura parvient à s'échapper, dénonçant avec Elizabeth le réseau de drogue et de traite des êtres humains qui est de mèche avec la prison.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre espagnol : Correccional de mujeres
 Genre : policier, érotique
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Julio de Grazia (es) : Francisco
 Edda Bustamante : Laura Rigueira
@@ -649,7 +667,9 @@
           <t>Écho dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est mentionné dans la chanson Caminando por el microcentro (Edda) du groupe Attaque 77.
 </t>
